--- a/Copy of Face recognition Dev Plan_v1 (2).xlsx
+++ b/Copy of Face recognition Dev Plan_v1 (2).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="67">
   <si>
     <t>Functionality</t>
   </si>
@@ -177,12 +177,6 @@
     <t>15. Create MDIYSaveBiometricDataFacadeImpl</t>
   </si>
   <si>
-    <t>16. Create MDIYCustomerDataService</t>
-  </si>
-  <si>
-    <t>17. Create MDIYSaveCustomerDataServiceImpl</t>
-  </si>
-  <si>
     <t>18. Create cronjob MDIYPersistUserCronJob</t>
   </si>
   <si>
@@ -217,6 +211,12 @@
   </si>
   <si>
     <t>jayasree</t>
+  </si>
+  <si>
+    <t>16. Create MDIYSaveBiometricDataService</t>
+  </si>
+  <si>
+    <t>17. Create MDIYSaveBiometricDataServiceImpl</t>
   </si>
 </sst>
 </file>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,7 +989,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -999,7 +999,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H14" s="9">
         <v>42213</v>
@@ -1384,7 +1384,9 @@
       <c r="I30" s="9">
         <v>42219</v>
       </c>
-      <c r="J30" s="3"/>
+      <c r="J30" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -1418,7 +1420,9 @@
       <c r="I32" s="9">
         <v>42219</v>
       </c>
-      <c r="J32" s="3"/>
+      <c r="J32" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1464,7 +1468,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="12"/>
@@ -1478,7 +1482,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B36" s="3">
         <v>3</v>
@@ -1528,7 +1532,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1562,7 +1566,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B40" s="3">
         <v>3</v>
@@ -1618,7 +1622,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="12"/>
@@ -1632,7 +1636,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B44" s="3">
         <v>4</v>
@@ -1676,7 +1680,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="12"/>
@@ -1690,7 +1694,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B47" s="3">
         <v>3</v>
@@ -1734,7 +1738,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="12"/>
@@ -1748,7 +1752,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B50" s="3">
         <v>3</v>
@@ -1792,7 +1796,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B52" s="3">
         <v>4</v>
@@ -1814,7 +1818,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1875,6 +1879,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F29:F35"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C39:C52"/>
+    <mergeCell ref="D39:D52"/>
+    <mergeCell ref="E39:E52"/>
+    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="E30:E35"/>
     <mergeCell ref="C18:C23"/>
     <mergeCell ref="D18:D23"/>
     <mergeCell ref="E18:E23"/>
@@ -1884,14 +1896,6 @@
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F29:F35"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C39:C52"/>
-    <mergeCell ref="D39:D52"/>
-    <mergeCell ref="E39:E52"/>
-    <mergeCell ref="C30:C35"/>
-    <mergeCell ref="D30:D35"/>
-    <mergeCell ref="E30:E35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Copy of Face recognition Dev Plan_v1 (2).xlsx
+++ b/Copy of Face recognition Dev Plan_v1 (2).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="68">
   <si>
     <t>Functionality</t>
   </si>
@@ -668,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,7 +1537,9 @@
       <c r="I37" s="9">
         <v>42221</v>
       </c>
-      <c r="J37" s="3"/>
+      <c r="J37" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -1555,7 +1557,9 @@
       <c r="I38" s="9">
         <v>42223</v>
       </c>
-      <c r="J38" s="3"/>
+      <c r="J38" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
@@ -1892,6 +1896,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F29:F35"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C39:C52"/>
+    <mergeCell ref="D39:D52"/>
+    <mergeCell ref="E39:E52"/>
+    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="E30:E35"/>
     <mergeCell ref="C18:C23"/>
     <mergeCell ref="D18:D23"/>
     <mergeCell ref="E18:E23"/>
@@ -1901,14 +1913,6 @@
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F29:F35"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C39:C52"/>
-    <mergeCell ref="D39:D52"/>
-    <mergeCell ref="E39:E52"/>
-    <mergeCell ref="C30:C35"/>
-    <mergeCell ref="D30:D35"/>
-    <mergeCell ref="E30:E35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
